--- a/real_data/vgg19_CIFAR.xlsx
+++ b/real_data/vgg19_CIFAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980CA95C-D4DB-3448-B184-6F5A5F9B6689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B2D9D-6051-CE49-A5B0-FBF1D28E156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="500" windowWidth="16080" windowHeight="15940" activeTab="5" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
+    <workbookView xWindow="15180" yWindow="500" windowWidth="13620" windowHeight="15940" activeTab="3" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="VM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -55,6 +55,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -78,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,7 +985,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1267,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CD9CE4-C2DE-5041-8469-82CCEAE8B1CB}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1487,7 +1494,7 @@
         <v>11384</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>10862.46</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1527,11 +1534,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0</v>
+      <c r="A24" s="2">
+        <v>423.3</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1558,17 +1565,17 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C25"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>2394.25</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -1576,10 +1583,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>6600.5</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1587,10 +1594,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>91.25</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>8222.2000000000007</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1598,10 +1605,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>5340.75</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>8545.4</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1609,10 +1616,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>8697.625</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>8435.4</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1620,10 +1627,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>51.625</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>8575.2000000000007</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1631,10 +1638,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>6880.375</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1642,10 +1649,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>14713.75</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>9564.2000000000007</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1653,10 +1660,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>14698.625</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>9352</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1664,10 +1671,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>15792.875</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>9408.4</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1675,10 +1682,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>33.875</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>7502.8</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1686,10 +1693,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>13981.125</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1697,10 +1704,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>30011.375</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>6194.6</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1708,10 +1715,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>29101.25</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>6039.6</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1719,10 +1726,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>29171.25</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>5986.4</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1730,10 +1737,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>4818.3999999999996</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1741,10 +1748,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>27800.125</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1752,10 +1759,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>25760.125</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>4465</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1763,10 +1770,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>26750.625</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>3400.6</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1774,10 +1781,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>25941.875</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1785,10 +1792,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>10.875</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>4755.2</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1796,10 +1803,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>86.375</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>340.6</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1807,10 +1814,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>0</v>
+        <v>1110.3333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>100.33333333333333</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1818,10 +1825,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>0</v>
+        <v>336.33333333333331</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>4987</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1829,10 +1836,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>0</v>
+        <v>131.33333333333334</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>497.66666666666669</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1847,18 +1854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3BF799-479E-6A42-935D-4EB5663C7D55}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>10.428571428571429</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>97.642857142857139</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -1866,10 +1873,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1880,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>78.857142857142861</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1888,10 +1895,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>59.428571428571431</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>76.714285714285708</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1899,10 +1906,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>76.857142857142861</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>41.571428571428569</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1913,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>38.357142857142854</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1921,10 +1928,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>47.214285714285715</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1932,10 +1939,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>56.928571428571431</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>184.78571428571428</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1943,10 +1950,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>66.285714285714292</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>120.92857142857143</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1954,10 +1961,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>58.571428571428569</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>83.642857142857139</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1968,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>57.785714285714285</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1976,10 +1983,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>56.214285714285715</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>3.3571428571428572</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1987,10 +1994,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>66.571428571428569</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1998,10 +2005,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>79.285714285714292</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>67.642857142857139</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2009,10 +2016,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>77.357142857142861</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>67.071428571428569</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2023,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -2031,10 +2038,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -2042,10 +2049,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>18.428571428571427</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>104.07142857142857</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -2053,10 +2060,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>33.214285714285715</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>262.64285714285717</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -2064,10 +2071,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>21.214285714285715</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -2075,10 +2082,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>169.42857142857142</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -2086,10 +2093,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>13.642857142857142</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -2097,10 +2104,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>0</v>
+        <v>163.71428571428572</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -2108,10 +2115,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -2119,10 +2126,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>6.43</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>

--- a/real_data/vgg19_CIFAR.xlsx
+++ b/real_data/vgg19_CIFAR.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B2D9D-6051-CE49-A5B0-FBF1D28E156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411F79C-5005-DA49-A2C8-0A62EE59ED4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="500" windowWidth="13620" windowHeight="15940" activeTab="3" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="VM" sheetId="1" r:id="rId1"/>
-    <sheet name="laptop" sheetId="2" r:id="rId2"/>
+    <sheet name="laptop" sheetId="1" r:id="rId1"/>
+    <sheet name="vm" sheetId="2" r:id="rId2"/>
     <sheet name="d1" sheetId="3" r:id="rId3"/>
     <sheet name="d2" sheetId="4" r:id="rId4"/>
     <sheet name="jetson-cpu" sheetId="6" r:id="rId5"/>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66690E67-5FCE-6A4A-826E-A212024B2386}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,9 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B730A547-5862-2A42-A864-107AD30BD13F}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1274,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CD9CE4-C2DE-5041-8469-82CCEAE8B1CB}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/real_data/vgg19_CIFAR.xlsx
+++ b/real_data/vgg19_CIFAR.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Documents/research/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411F79C-5005-DA49-A2C8-0A62EE59ED4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC82CC9-F382-AD4D-9485-4681602055F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="laptop" sheetId="1" r:id="rId1"/>
-    <sheet name="vm" sheetId="2" r:id="rId2"/>
+    <sheet name="VM" sheetId="2" r:id="rId2"/>
     <sheet name="d1" sheetId="3" r:id="rId3"/>
     <sheet name="d2" sheetId="4" r:id="rId4"/>
     <sheet name="jetson-cpu" sheetId="6" r:id="rId5"/>
@@ -404,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66690E67-5FCE-6A4A-826E-A212024B2386}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2140,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28767569-E4B9-EF4B-86CB-2DE1B950E61D}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2352,6 +2352,16 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>SUM(A1:A25)/1024</f>
+        <v>209.78792013600469</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B1:B25)/1024</f>
+        <v>532.6429271697998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/real_data/vgg19_CIFAR.xlsx
+++ b/real_data/vgg19_CIFAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Documents/research/delft-visiting/optimize code/scheduling-jobs/real_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Documents/coding/git_repos/SFL-workflow-optimization/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC82CC9-F382-AD4D-9485-4681602055F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9116F5B5-C587-C04B-8989-F992CDF43A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
   </bookViews>
@@ -2140,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28767569-E4B9-EF4B-86CB-2DE1B950E61D}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A28" sqref="A28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2352,16 +2352,6 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f>SUM(A1:A25)/1024</f>
-        <v>209.78792013600469</v>
-      </c>
-      <c r="B28">
-        <f>SUM(B1:B25)/1024</f>
-        <v>532.6429271697998</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/real_data/vgg19_CIFAR.xlsx
+++ b/real_data/vgg19_CIFAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Documents/coding/git_repos/SFL-workflow-optimization/real_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9116F5B5-C587-C04B-8989-F992CDF43A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DE75B3-4750-6A47-9C88-696F73E7F684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{44E62F82-01C5-1D43-A5E9-BE0EC7E43EDB}"/>
   </bookViews>
@@ -106,9 +106,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +146,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,7 +252,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2143,7 +2143,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D29"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
